--- a/Assignment 3- 8 puzzle problem/Data tabulation.xlsx
+++ b/Assignment 3- 8 puzzle problem/Data tabulation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>P1</t>
   </si>
@@ -62,13 +62,10 @@
     <t>seed=2022,Diff=6</t>
   </si>
   <si>
-    <t>seed=2022,Diff=8</t>
-  </si>
-  <si>
-    <t>seed=2022,Diff=10</t>
-  </si>
-  <si>
     <t>seed=2022,Diff=12</t>
+  </si>
+  <si>
+    <t>seed=2022,Diff=9</t>
   </si>
 </sst>
 </file>
@@ -227,27 +224,9 @@
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -257,6 +236,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,27 +547,27 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
       <c r="G2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="10"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G3" t="s">
@@ -578,181 +575,185 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="11"/>
+      <c r="C4" s="1">
+        <v>0.36363636999999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="11"/>
+      <c r="C5" s="1">
+        <v>0.12280702</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="11"/>
+      <c r="C6" s="1">
+        <v>5.4545455E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>0.14634146000000001</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>0.75</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="8">
         <v>0.75</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="15" t="s">
-        <v>12</v>
+      <c r="B8" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="C8" s="1">
-        <v>1.6482451E-3</v>
+        <v>1.6482510000000001E-3</v>
       </c>
       <c r="D8" s="1">
         <v>4.8710602999999998E-2</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="5">
         <v>2.4216523E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1.6482510000000001E-3</v>
-      </c>
-      <c r="D9" s="1">
-        <v>4.8710602999999998E-2</v>
-      </c>
-      <c r="E9" s="11">
-        <v>2.4216523E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="B9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4">
         <v>2.4246098000000002E-3</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D9" s="4">
         <v>0.10810810999999999</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E9" s="8">
         <v>3.6446470000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="16" t="s">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="17">
-        <f>AVERAGE(C4:C10)</f>
-        <v>3.8015641475E-2</v>
-      </c>
-      <c r="D11" s="17">
-        <f t="shared" ref="D11:E11" si="0">AVERAGE(D4:D10)</f>
-        <v>0.23888232899999998</v>
-      </c>
-      <c r="E11" s="17">
+      <c r="C10" s="11">
+        <f>AVERAGE(C4:C9)</f>
+        <v>0.11523386096666667</v>
+      </c>
+      <c r="D10" s="11">
+        <f t="shared" ref="D10:E10" si="0">AVERAGE(D4:D9)</f>
+        <v>0.5886364521666666</v>
+      </c>
+      <c r="E10" s="11">
         <f t="shared" si="0"/>
-        <v>0.208719879</v>
-      </c>
+        <v>0.61844383216666665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
